--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:22:57+00:00</t>
+    <t>2025-11-14T07:24:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:24:46+00:00</t>
+    <t>2025-11-14T07:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:30:49+00:00</t>
+    <t>2025-11-14T08:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="665">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T08:50:36+00:00</t>
+    <t>2025-11-18T17:20:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,7 +118,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/bodytemp</t>
+    <t>http://hl7.org/fhir/StructureDefinition/bodytemp|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -488,6 +488,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-observation-body-temperature|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Observation.meta.security</t>
   </si>
   <si>
@@ -653,7 +656,7 @@
     <t>levelOfExertion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-observation-level-of-exertion}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-observation-level-of-exertion|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1193,7 +1196,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1247,7 +1250,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1342,7 +1345,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|RelatedPerson|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|PractitionerRole)
+    <t xml:space="preserve">Reference(CareTeam|4.0.1|RelatedPerson|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1671,7 +1674,7 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vsbody-temp-meas-body-location</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vsbody-temp-meas-body-location|2.2.0-ballot</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -2434,7 +2437,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="191.30859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="233.41796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2449,7 +2452,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.02734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.53515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3721,7 +3724,7 @@
         <v>83</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>83</v>
@@ -3795,10 +3798,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3821,16 +3824,16 @@
         <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3856,13 +3859,13 @@
         <v>83</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>83</v>
@@ -3880,7 +3883,7 @@
         <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3915,10 +3918,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3941,16 +3944,16 @@
         <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3976,13 +3979,13 @@
         <v>83</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>83</v>
@@ -4000,7 +4003,7 @@
         <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -4035,10 +4038,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4064,13 +4067,13 @@
         <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4120,7 +4123,7 @@
         <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -4155,10 +4158,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4181,16 +4184,16 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4216,13 +4219,13 @@
         <v>83</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
@@ -4240,7 +4243,7 @@
         <v>83</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -4275,14 +4278,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4301,16 +4304,16 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4360,7 +4363,7 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -4384,7 +4387,7 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>83</v>
@@ -4395,14 +4398,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4421,16 +4424,16 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4480,7 +4483,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4504,7 +4507,7 @@
         <v>83</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>83</v>
@@ -4515,10 +4518,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4544,10 +4547,10 @@
         <v>115</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4596,7 +4599,7 @@
         <v>121</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4631,13 +4634,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>83</v>
@@ -4659,13 +4662,13 @@
         <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4716,7 +4719,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4725,7 +4728,7 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>123</v>
@@ -4751,13 +4754,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>83</v>
@@ -4779,13 +4782,13 @@
         <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4836,7 +4839,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4871,10 +4874,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4900,16 +4903,16 @@
         <v>115</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -4958,7 +4961,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4982,7 +4985,7 @@
         <v>83</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4993,10 +4996,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5019,17 +5022,17 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -5078,7 +5081,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -5093,19 +5096,19 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -5113,14 +5116,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5139,17 +5142,17 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
@@ -5198,7 +5201,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -5213,16 +5216,16 @@
         <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
@@ -5233,14 +5236,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5259,16 +5262,16 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5318,7 +5321,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -5333,16 +5336,16 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>83</v>
@@ -5353,10 +5356,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5379,19 +5382,19 @@
         <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -5416,11 +5419,11 @@
         <v>83</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
@@ -5438,7 +5441,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>94</v>
@@ -5453,19 +5456,19 @@
         <v>106</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5473,10 +5476,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5499,19 +5502,19 @@
         <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5536,19 +5539,19 @@
         <v>83</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
@@ -5558,7 +5561,7 @@
         <v>121</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5582,10 +5585,10 @@
         <v>83</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5593,13 +5596,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>83</v>
@@ -5621,19 +5624,19 @@
         <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5658,13 +5661,13 @@
         <v>83</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>83</v>
@@ -5682,7 +5685,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5706,10 +5709,10 @@
         <v>83</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
@@ -5717,10 +5720,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5835,10 +5838,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5955,10 +5958,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5981,19 +5984,19 @@
         <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -6042,7 +6045,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -6063,10 +6066,10 @@
         <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -6077,10 +6080,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6195,10 +6198,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6315,10 +6318,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6344,23 +6347,23 @@
         <v>136</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>83</v>
@@ -6402,7 +6405,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6423,10 +6426,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6437,10 +6440,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6466,13 +6469,13 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6522,7 +6525,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6543,10 +6546,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6557,10 +6560,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6583,24 +6586,24 @@
         <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>83</v>
@@ -6642,7 +6645,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6663,10 +6666,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6677,10 +6680,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6706,14 +6709,14 @@
         <v>108</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6762,7 +6765,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6783,10 +6786,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6797,10 +6800,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6823,19 +6826,19 @@
         <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6884,7 +6887,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6905,10 +6908,10 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6919,10 +6922,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6948,16 +6951,16 @@
         <v>108</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -7006,7 +7009,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -7027,10 +7030,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -7041,14 +7044,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -7067,19 +7070,19 @@
         <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -7104,13 +7107,13 @@
         <v>83</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>83</v>
@@ -7128,7 +7131,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>94</v>
@@ -7143,30 +7146,30 @@
         <v>106</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7281,10 +7284,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7401,10 +7404,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7427,19 +7430,19 @@
         <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7476,7 +7479,7 @@
         <v>83</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
@@ -7486,7 +7489,7 @@
         <v>121</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7507,10 +7510,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7521,13 +7524,13 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>83</v>
@@ -7549,19 +7552,19 @@
         <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7610,7 +7613,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7631,10 +7634,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7645,10 +7648,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7763,10 +7766,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7883,10 +7886,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7912,23 +7915,23 @@
         <v>136</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>83</v>
@@ -7970,7 +7973,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7991,10 +7994,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -8005,10 +8008,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8034,13 +8037,13 @@
         <v>108</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8090,7 +8093,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -8111,10 +8114,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -8125,10 +8128,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8151,24 +8154,24 @@
         <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>83</v>
@@ -8210,7 +8213,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8231,10 +8234,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -8245,10 +8248,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8274,14 +8277,14 @@
         <v>108</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8330,7 +8333,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8351,10 +8354,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8365,10 +8368,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8391,19 +8394,19 @@
         <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8452,7 +8455,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8473,10 +8476,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8487,10 +8490,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8516,16 +8519,16 @@
         <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8574,7 +8577,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8595,10 +8598,10 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8609,10 +8612,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8635,19 +8638,19 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8696,7 +8699,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8711,19 +8714,19 @@
         <v>106</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
@@ -8731,10 +8734,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8757,16 +8760,16 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8816,7 +8819,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8837,13 +8840,13 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
@@ -8851,14 +8854,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8877,19 +8880,19 @@
         <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8938,7 +8941,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8953,19 +8956,19 @@
         <v>106</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8973,14 +8976,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8999,19 +9002,19 @@
         <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -9060,7 +9063,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9069,25 +9072,25 @@
         <v>94</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>83</v>
@@ -9095,10 +9098,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9124,13 +9127,13 @@
         <v>130</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9180,7 +9183,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9201,13 +9204,13 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -9215,10 +9218,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9241,17 +9244,17 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -9300,7 +9303,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9315,19 +9318,19 @@
         <v>106</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
@@ -9335,10 +9338,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9361,19 +9364,19 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9410,17 +9413,17 @@
         <v>83</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9429,7 +9432,7 @@
         <v>94</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>106</v>
@@ -9438,30 +9441,30 @@
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>83</v>
@@ -9483,19 +9486,19 @@
         <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
@@ -9544,7 +9547,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9553,7 +9556,7 @@
         <v>94</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>106</v>
@@ -9562,27 +9565,27 @@
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9697,10 +9700,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9817,10 +9820,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9843,19 +9846,19 @@
         <v>95</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9904,7 +9907,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9925,10 +9928,10 @@
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9939,10 +9942,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9965,23 +9968,23 @@
         <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q63" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>83</v>
@@ -10002,13 +10005,13 @@
         <v>83</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>83</v>
@@ -10026,7 +10029,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -10047,10 +10050,10 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -10061,10 +10064,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10090,14 +10093,14 @@
         <v>108</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
@@ -10146,7 +10149,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -10167,10 +10170,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -10181,10 +10184,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10210,21 +10213,21 @@
         <v>136</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>83</v>
@@ -10266,7 +10269,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10275,7 +10278,7 @@
         <v>94</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>106</v>
@@ -10287,10 +10290,10 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -10301,10 +10304,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10327,19 +10330,19 @@
         <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -10364,13 +10367,13 @@
         <v>83</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>83</v>
@@ -10388,7 +10391,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10409,10 +10412,10 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10423,10 +10426,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10449,19 +10452,19 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10486,13 +10489,13 @@
         <v>83</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
@@ -10510,7 +10513,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10519,7 +10522,7 @@
         <v>94</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>106</v>
@@ -10531,10 +10534,10 @@
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10545,14 +10548,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10571,19 +10574,19 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10608,13 +10611,13 @@
         <v>83</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>83</v>
@@ -10632,7 +10635,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10650,27 +10653,27 @@
         <v>83</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10693,19 +10696,19 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
@@ -10754,7 +10757,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10775,10 +10778,10 @@
         <v>83</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
@@ -10789,10 +10792,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10815,16 +10818,16 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10850,11 +10853,11 @@
         <v>83</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>83</v>
@@ -10872,7 +10875,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10890,27 +10893,27 @@
         <v>83</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10933,19 +10936,19 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -10970,13 +10973,13 @@
         <v>83</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>83</v>
@@ -10994,7 +10997,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -11015,10 +11018,10 @@
         <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
@@ -11029,10 +11032,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11055,16 +11058,16 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11114,7 +11117,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11132,27 +11135,27 @@
         <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11175,16 +11178,16 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11234,7 +11237,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11252,27 +11255,27 @@
         <v>83</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11295,19 +11298,19 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -11356,7 +11359,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11368,7 +11371,7 @@
         <v>83</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>83</v>
@@ -11377,10 +11380,10 @@
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11391,10 +11394,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11509,10 +11512,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11629,14 +11632,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11658,16 +11661,16 @@
         <v>115</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>83</v>
@@ -11716,7 +11719,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11740,7 +11743,7 @@
         <v>83</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -11751,10 +11754,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11777,13 +11780,13 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11834,7 +11837,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11843,7 +11846,7 @@
         <v>94</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>106</v>
@@ -11855,10 +11858,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11869,10 +11872,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11895,13 +11898,13 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11952,7 +11955,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11961,7 +11964,7 @@
         <v>94</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>106</v>
@@ -11973,10 +11976,10 @@
         <v>83</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
@@ -11987,10 +11990,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12013,19 +12016,19 @@
         <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -12050,13 +12053,13 @@
         <v>83</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>83</v>
@@ -12074,7 +12077,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12092,13 +12095,13 @@
         <v>83</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
@@ -12109,10 +12112,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12135,19 +12138,19 @@
         <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12172,13 +12175,13 @@
         <v>83</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>83</v>
@@ -12196,7 +12199,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12214,13 +12217,13 @@
         <v>83</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
@@ -12231,10 +12234,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12257,17 +12260,17 @@
         <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>83</v>
@@ -12316,7 +12319,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12340,7 +12343,7 @@
         <v>83</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
@@ -12351,10 +12354,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12380,10 +12383,10 @@
         <v>108</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12434,7 +12437,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12455,10 +12458,10 @@
         <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
@@ -12469,10 +12472,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12495,16 +12498,16 @@
         <v>95</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12554,7 +12557,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12575,10 +12578,10 @@
         <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12589,10 +12592,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12615,16 +12618,16 @@
         <v>95</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12674,7 +12677,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12695,10 +12698,10 @@
         <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12709,10 +12712,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12735,19 +12738,19 @@
         <v>95</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -12796,7 +12799,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12808,7 +12811,7 @@
         <v>83</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>83</v>
@@ -12817,10 +12820,10 @@
         <v>83</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
@@ -12831,10 +12834,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12949,10 +12952,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13069,14 +13072,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -13098,16 +13101,16 @@
         <v>115</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
@@ -13156,7 +13159,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13180,7 +13183,7 @@
         <v>83</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
@@ -13191,10 +13194,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13217,19 +13220,19 @@
         <v>95</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
@@ -13254,13 +13257,13 @@
         <v>83</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
@@ -13278,7 +13281,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>94</v>
@@ -13296,16 +13299,16 @@
         <v>83</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>83</v>
@@ -13313,10 +13316,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13339,19 +13342,19 @@
         <v>95</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>83</v>
@@ -13376,13 +13379,13 @@
         <v>83</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>83</v>
@@ -13400,7 +13403,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13409,7 +13412,7 @@
         <v>94</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>106</v>
@@ -13418,27 +13421,27 @@
         <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13461,19 +13464,19 @@
         <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>83</v>
@@ -13498,13 +13501,13 @@
         <v>83</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>83</v>
@@ -13522,7 +13525,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13531,7 +13534,7 @@
         <v>94</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>106</v>
@@ -13543,10 +13546,10 @@
         <v>83</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13557,14 +13560,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13583,19 +13586,19 @@
         <v>83</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>83</v>
@@ -13620,13 +13623,13 @@
         <v>83</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>83</v>
@@ -13644,7 +13647,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13662,27 +13665,27 @@
         <v>83</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13708,16 +13711,16 @@
         <v>84</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>83</v>
@@ -13766,7 +13769,7 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13787,10 +13790,10 @@
         <v>83</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>83</v>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:20:39+00:00</t>
+    <t>2025-12-05T08:27:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:27:25+00:00</t>
+    <t>2025-12-05T08:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:30:09+00:00</t>
+    <t>2025-12-05T08:32:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:32:19+00:00</t>
+    <t>2025-12-05T09:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-observation-body-temperature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:13:38+00:00</t>
+    <t>2025-12-05T09:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
